--- a/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,43; 25,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,67</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>238,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 12,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>222,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 13,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,45; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>75,59%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,76; 622,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,22 +924,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 8,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,35; 175,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 12,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>248,62%</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 7,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 2,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 218,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1148,6 +1148,13 @@
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>13.6057398712739</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,43; 25,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.43212045502387</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.66018665751959</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>238,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 12,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>4.66960015899832</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.658622132015269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.384421854569173</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>222,68%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.23155077569821</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 13,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-55,45; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.96091845919315</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>11.49879332208589</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +737,22 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>75,59%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>35,15%</t>
+      <c r="C10" s="5" t="n">
+        <v>6.894007562906824</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.018189869015543</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>2.226831463561894</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,204 +760,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 11,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 3,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-49,76; 622,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.199342539588325</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.554493864622691</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.50615236274806</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>5.535269138414795</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-33,79%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; 8,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-83,35; 175,09</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.137245395777712</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1649925592407496</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.7558534761943203</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.1066182190353496</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>34,94%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.539011142622624</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="n">
+        <v>-4.740344850222997</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4975645043662492</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 12,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.71356947776335</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="n">
+        <v>3.299024874275062</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>6.223158333884413</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +873,201 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>86,4%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>248,62%</t>
-        </is>
-      </c>
+      <c r="C16" s="5" t="n">
+        <v>-4.171323502797879</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.3379367038960371</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 7,83</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,31</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 2,28</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 218,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.44630672149616</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.8334865309329033</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.845011205826999</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>1.75086806443941</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.90503551932157</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.914912668190303</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.349397617815374</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-10.05895892125166</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.34875761952633</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>9.170451548131615</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.354796880611354</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.234625846625204</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7000148843771883</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.8639595259996516</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>2.101772336585222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.4126576187162892</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2924154077254137</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.001448425442320639</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.831247978511448</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.197288083866155</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.265279850355248</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2.180897815287153</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1076,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
